--- a/data/158/MOF/TRADE/COUN/EU.xlsx
+++ b/data/158/MOF/TRADE/COUN/EU.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SX59"/>
+  <dimension ref="A1:TJ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,66 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4478,40 +4538,76 @@
         <v>621704096</v>
       </c>
       <c r="SM2" t="n">
-        <v>532211708</v>
+        <v>532179404</v>
       </c>
       <c r="SN2" t="n">
-        <v>589138721</v>
+        <v>589099470</v>
       </c>
       <c r="SO2" t="n">
-        <v>714542204</v>
+        <v>714535402</v>
       </c>
       <c r="SP2" t="n">
-        <v>675907010</v>
+        <v>675923660</v>
       </c>
       <c r="SQ2" t="n">
-        <v>617041624</v>
+        <v>617041049</v>
       </c>
       <c r="SR2" t="n">
-        <v>653649081</v>
+        <v>653650814</v>
       </c>
       <c r="SS2" t="n">
-        <v>639991639</v>
+        <v>639992451</v>
       </c>
       <c r="ST2" t="n">
-        <v>618698109</v>
+        <v>618700763</v>
       </c>
       <c r="SU2" t="n">
-        <v>621257789</v>
+        <v>620973619</v>
       </c>
       <c r="SV2" t="n">
-        <v>671546169</v>
+        <v>671544283</v>
       </c>
       <c r="SW2" t="n">
         <v>652752271</v>
       </c>
       <c r="SX2" t="n">
-        <v>681708726</v>
+        <v>681707344</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>617881792</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6038,40 +6134,76 @@
         <v>703071879</v>
       </c>
       <c r="SM3" t="n">
-        <v>690005892</v>
+        <v>690155660</v>
       </c>
       <c r="SN3" t="n">
-        <v>629671167</v>
+        <v>630956171</v>
       </c>
       <c r="SO3" t="n">
-        <v>799029554</v>
+        <v>802862782</v>
       </c>
       <c r="SP3" t="n">
-        <v>786876281</v>
+        <v>787895934</v>
       </c>
       <c r="SQ3" t="n">
-        <v>805286612</v>
+        <v>806868804</v>
       </c>
       <c r="SR3" t="n">
-        <v>791399552</v>
+        <v>792819871</v>
       </c>
       <c r="SS3" t="n">
-        <v>742830417</v>
+        <v>742904796</v>
       </c>
       <c r="ST3" t="n">
-        <v>863039042</v>
+        <v>863092836</v>
       </c>
       <c r="SU3" t="n">
-        <v>839707005</v>
+        <v>839515654</v>
       </c>
       <c r="SV3" t="n">
-        <v>762028873</v>
+        <v>762056762</v>
       </c>
       <c r="SW3" t="n">
-        <v>885125959</v>
+        <v>885132524</v>
       </c>
       <c r="SX3" t="n">
-        <v>816971311</v>
+        <v>817560096</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>870800044</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7601,13 +7733,13 @@
         <v>11888782</v>
       </c>
       <c r="SN4" t="n">
-        <v>11411362</v>
+        <v>11409812</v>
       </c>
       <c r="SO4" t="n">
         <v>17325764</v>
       </c>
       <c r="SP4" t="n">
-        <v>12694998</v>
+        <v>12695745</v>
       </c>
       <c r="SQ4" t="n">
         <v>10834977</v>
@@ -7632,6 +7764,42 @@
       </c>
       <c r="SX4" t="n">
         <v>13145242</v>
+      </c>
+      <c r="SY4" t="n">
+        <v>9388336</v>
+      </c>
+      <c r="SZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9158,40 +9326,76 @@
         <v>23013817</v>
       </c>
       <c r="SM5" t="n">
-        <v>24989608</v>
+        <v>25038958</v>
       </c>
       <c r="SN5" t="n">
-        <v>24179480</v>
+        <v>24289632</v>
       </c>
       <c r="SO5" t="n">
-        <v>37550673</v>
+        <v>37570397</v>
       </c>
       <c r="SP5" t="n">
-        <v>30091173</v>
+        <v>30107647</v>
       </c>
       <c r="SQ5" t="n">
-        <v>23985153</v>
+        <v>24028736</v>
       </c>
       <c r="SR5" t="n">
-        <v>31949896</v>
+        <v>31979820</v>
       </c>
       <c r="SS5" t="n">
-        <v>28957199</v>
+        <v>28930579</v>
       </c>
       <c r="ST5" t="n">
-        <v>28951381</v>
+        <v>28950256</v>
       </c>
       <c r="SU5" t="n">
-        <v>28113942</v>
+        <v>28113267</v>
       </c>
       <c r="SV5" t="n">
         <v>24582517</v>
       </c>
       <c r="SW5" t="n">
-        <v>34748717</v>
+        <v>34749850</v>
       </c>
       <c r="SX5" t="n">
-        <v>27480543</v>
+        <v>27487425</v>
+      </c>
+      <c r="SY5" t="n">
+        <v>43228140</v>
+      </c>
+      <c r="SZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10753,6 +10957,42 @@
       <c r="SX6" t="n">
         <v>5475889</v>
       </c>
+      <c r="SY6" t="n">
+        <v>4793898</v>
+      </c>
+      <c r="SZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -12281,22 +12521,22 @@
         <v>21880453</v>
       </c>
       <c r="SN7" t="n">
-        <v>19924749</v>
+        <v>19975918</v>
       </c>
       <c r="SO7" t="n">
-        <v>22987217</v>
+        <v>26146602</v>
       </c>
       <c r="SP7" t="n">
         <v>22353960</v>
       </c>
       <c r="SQ7" t="n">
-        <v>21142602</v>
+        <v>22530251</v>
       </c>
       <c r="SR7" t="n">
-        <v>20492523</v>
+        <v>21139716</v>
       </c>
       <c r="SS7" t="n">
-        <v>21076247</v>
+        <v>21078583</v>
       </c>
       <c r="ST7" t="n">
         <v>23832425</v>
@@ -12308,10 +12548,46 @@
         <v>21772973</v>
       </c>
       <c r="SW7" t="n">
-        <v>21733832</v>
+        <v>21735626</v>
       </c>
       <c r="SX7" t="n">
-        <v>20492953</v>
+        <v>20505736</v>
+      </c>
+      <c r="SY7" t="n">
+        <v>28159864</v>
+      </c>
+      <c r="SZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -13873,6 +14149,42 @@
       <c r="SX8" t="n">
         <v>0</v>
       </c>
+      <c r="SY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -15433,6 +15745,42 @@
       <c r="SX9" t="n">
         <v>0</v>
       </c>
+      <c r="SY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="SZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -16967,10 +17315,10 @@
         <v>8168810</v>
       </c>
       <c r="SP10" t="n">
-        <v>10197880</v>
+        <v>10197416</v>
       </c>
       <c r="SQ10" t="n">
-        <v>8311372</v>
+        <v>8310797</v>
       </c>
       <c r="SR10" t="n">
         <v>7143465</v>
@@ -16992,6 +17340,42 @@
       </c>
       <c r="SX10" t="n">
         <v>14113660</v>
+      </c>
+      <c r="SY10" t="n">
+        <v>17870579</v>
+      </c>
+      <c r="SZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -18518,40 +18902,76 @@
         <v>45232750</v>
       </c>
       <c r="SM11" t="n">
-        <v>80513538</v>
+        <v>80561945</v>
       </c>
       <c r="SN11" t="n">
-        <v>37510357</v>
+        <v>38005173</v>
       </c>
       <c r="SO11" t="n">
         <v>84727446</v>
       </c>
       <c r="SP11" t="n">
-        <v>56296780</v>
+        <v>56300491</v>
       </c>
       <c r="SQ11" t="n">
-        <v>62428139</v>
+        <v>62431625</v>
       </c>
       <c r="SR11" t="n">
-        <v>42221736</v>
+        <v>42246276</v>
       </c>
       <c r="SS11" t="n">
         <v>44530866</v>
       </c>
       <c r="ST11" t="n">
-        <v>82973601</v>
+        <v>82998619</v>
       </c>
       <c r="SU11" t="n">
-        <v>55475202</v>
+        <v>55479051</v>
       </c>
       <c r="SV11" t="n">
-        <v>51618453</v>
+        <v>51618666</v>
       </c>
       <c r="SW11" t="n">
-        <v>75228922</v>
+        <v>75232990</v>
       </c>
       <c r="SX11" t="n">
-        <v>71739163</v>
+        <v>71739383</v>
+      </c>
+      <c r="SY11" t="n">
+        <v>45027760</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -20081,7 +20501,7 @@
         <v>100645274</v>
       </c>
       <c r="SN12" t="n">
-        <v>109778294</v>
+        <v>109776944</v>
       </c>
       <c r="SO12" t="n">
         <v>133061014</v>
@@ -20099,7 +20519,7 @@
         <v>110853975</v>
       </c>
       <c r="ST12" t="n">
-        <v>110590179</v>
+        <v>110592833</v>
       </c>
       <c r="SU12" t="n">
         <v>115469971</v>
@@ -20111,7 +20531,43 @@
         <v>112227099</v>
       </c>
       <c r="SX12" t="n">
-        <v>125051631</v>
+        <v>125051098</v>
+      </c>
+      <c r="SY12" t="n">
+        <v>111444387</v>
+      </c>
+      <c r="SZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -21638,40 +22094,76 @@
         <v>52573607</v>
       </c>
       <c r="SM13" t="n">
-        <v>28194200</v>
+        <v>28244363</v>
       </c>
       <c r="SN13" t="n">
-        <v>27423579</v>
+        <v>27468603</v>
       </c>
       <c r="SO13" t="n">
-        <v>42017905</v>
+        <v>42192074</v>
       </c>
       <c r="SP13" t="n">
-        <v>33283222</v>
+        <v>33609585</v>
       </c>
       <c r="SQ13" t="n">
-        <v>27297554</v>
+        <v>27464965</v>
       </c>
       <c r="SR13" t="n">
-        <v>25847729</v>
+        <v>26103083</v>
       </c>
       <c r="SS13" t="n">
-        <v>28276428</v>
+        <v>28452774</v>
       </c>
       <c r="ST13" t="n">
-        <v>27973627</v>
+        <v>28010749</v>
       </c>
       <c r="SU13" t="n">
-        <v>33776702</v>
+        <v>33778653</v>
       </c>
       <c r="SV13" t="n">
-        <v>26897160</v>
+        <v>26898228</v>
       </c>
       <c r="SW13" t="n">
         <v>25934543</v>
       </c>
       <c r="SX13" t="n">
-        <v>28519176</v>
+        <v>28519221</v>
+      </c>
+      <c r="SY13" t="n">
+        <v>42468213</v>
+      </c>
+      <c r="SZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23198,13 +23690,13 @@
         <v>67559232</v>
       </c>
       <c r="SM14" t="n">
-        <v>54113040</v>
+        <v>54098266</v>
       </c>
       <c r="SN14" t="n">
-        <v>59094490</v>
+        <v>59091213</v>
       </c>
       <c r="SO14" t="n">
-        <v>75726494</v>
+        <v>75726838</v>
       </c>
       <c r="SP14" t="n">
         <v>73142237</v>
@@ -23216,7 +23708,7 @@
         <v>69114013</v>
       </c>
       <c r="SS14" t="n">
-        <v>65955836</v>
+        <v>65956648</v>
       </c>
       <c r="ST14" t="n">
         <v>56451507</v>
@@ -23232,6 +23724,42 @@
       </c>
       <c r="SX14" t="n">
         <v>72753229</v>
+      </c>
+      <c r="SY14" t="n">
+        <v>69899611</v>
+      </c>
+      <c r="SZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24758,31 +25286,31 @@
         <v>18686041</v>
       </c>
       <c r="SM15" t="n">
-        <v>28781711</v>
+        <v>28783527</v>
       </c>
       <c r="SN15" t="n">
-        <v>19812108</v>
+        <v>19815271</v>
       </c>
       <c r="SO15" t="n">
-        <v>43473170</v>
+        <v>43479856</v>
       </c>
       <c r="SP15" t="n">
-        <v>87655981</v>
+        <v>87662493</v>
       </c>
       <c r="SQ15" t="n">
-        <v>110793649</v>
+        <v>110723400</v>
       </c>
       <c r="SR15" t="n">
-        <v>45386988</v>
+        <v>45387260</v>
       </c>
       <c r="SS15" t="n">
-        <v>83106646</v>
+        <v>83130066</v>
       </c>
       <c r="ST15" t="n">
         <v>78328284</v>
       </c>
       <c r="SU15" t="n">
-        <v>78668781</v>
+        <v>78671607</v>
       </c>
       <c r="SV15" t="n">
         <v>76437464</v>
@@ -24791,7 +25319,43 @@
         <v>25750952</v>
       </c>
       <c r="SX15" t="n">
-        <v>22160698</v>
+        <v>22161280</v>
+      </c>
+      <c r="SY15" t="n">
+        <v>45797749</v>
+      </c>
+      <c r="SZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -26353,6 +26917,42 @@
       <c r="SX16" t="n">
         <v>4696059</v>
       </c>
+      <c r="SY16" t="n">
+        <v>7166670</v>
+      </c>
+      <c r="SZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -27878,7 +28478,7 @@
         <v>697841</v>
       </c>
       <c r="SM17" t="n">
-        <v>838010</v>
+        <v>848850</v>
       </c>
       <c r="SN17" t="n">
         <v>1201700</v>
@@ -27912,6 +28512,42 @@
       </c>
       <c r="SX17" t="n">
         <v>1032409</v>
+      </c>
+      <c r="SY17" t="n">
+        <v>718289</v>
+      </c>
+      <c r="SZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29438,7 +30074,7 @@
         <v>60063458</v>
       </c>
       <c r="SM18" t="n">
-        <v>51406246</v>
+        <v>51405664</v>
       </c>
       <c r="SN18" t="n">
         <v>56312900</v>
@@ -29447,7 +30083,7 @@
         <v>70063032</v>
       </c>
       <c r="SP18" t="n">
-        <v>66145847</v>
+        <v>66145391</v>
       </c>
       <c r="SQ18" t="n">
         <v>57163661</v>
@@ -29472,6 +30108,42 @@
       </c>
       <c r="SX18" t="n">
         <v>64467056</v>
+      </c>
+      <c r="SY18" t="n">
+        <v>64245996</v>
+      </c>
+      <c r="SZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -30998,40 +31670,76 @@
         <v>115779215</v>
       </c>
       <c r="SM19" t="n">
-        <v>86098936</v>
+        <v>86250807</v>
       </c>
       <c r="SN19" t="n">
-        <v>82437643</v>
+        <v>82624138</v>
       </c>
       <c r="SO19" t="n">
-        <v>97733919</v>
+        <v>97920698</v>
       </c>
       <c r="SP19" t="n">
-        <v>89463713</v>
+        <v>89755856</v>
       </c>
       <c r="SQ19" t="n">
-        <v>76405804</v>
+        <v>76467233</v>
       </c>
       <c r="SR19" t="n">
-        <v>108425506</v>
+        <v>108421513</v>
       </c>
       <c r="SS19" t="n">
-        <v>78618875</v>
+        <v>78676246</v>
       </c>
       <c r="ST19" t="n">
-        <v>118058186</v>
+        <v>118086770</v>
       </c>
       <c r="SU19" t="n">
-        <v>102100375</v>
+        <v>102138118</v>
       </c>
       <c r="SV19" t="n">
-        <v>145569158</v>
+        <v>145582952</v>
       </c>
       <c r="SW19" t="n">
-        <v>168780525</v>
+        <v>168787264</v>
       </c>
       <c r="SX19" t="n">
-        <v>120606514</v>
+        <v>120626297</v>
+      </c>
+      <c r="SY19" t="n">
+        <v>98868794</v>
+      </c>
+      <c r="SZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -32558,22 +33266,22 @@
         <v>173839174</v>
       </c>
       <c r="SM20" t="n">
-        <v>158435559</v>
+        <v>158434804</v>
       </c>
       <c r="SN20" t="n">
         <v>168028316</v>
       </c>
       <c r="SO20" t="n">
-        <v>204281606</v>
+        <v>204274245</v>
       </c>
       <c r="SP20" t="n">
-        <v>194312914</v>
+        <v>194335117</v>
       </c>
       <c r="SQ20" t="n">
         <v>183769242</v>
       </c>
       <c r="SR20" t="n">
-        <v>197605410</v>
+        <v>197607143</v>
       </c>
       <c r="SS20" t="n">
         <v>183828234</v>
@@ -32582,7 +33290,7 @@
         <v>186721299</v>
       </c>
       <c r="SU20" t="n">
-        <v>202309583</v>
+        <v>202025413</v>
       </c>
       <c r="SV20" t="n">
         <v>213380492</v>
@@ -32591,7 +33299,43 @@
         <v>186152135</v>
       </c>
       <c r="SX20" t="n">
-        <v>200479642</v>
+        <v>200476902</v>
+      </c>
+      <c r="SY20" t="n">
+        <v>173269901</v>
+      </c>
+      <c r="SZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -34118,40 +34862,76 @@
         <v>206974052</v>
       </c>
       <c r="SM21" t="n">
-        <v>209107999</v>
+        <v>209207214</v>
       </c>
       <c r="SN21" t="n">
-        <v>214050909</v>
+        <v>214073566</v>
       </c>
       <c r="SO21" t="n">
-        <v>221236126</v>
+        <v>221350273</v>
       </c>
       <c r="SP21" t="n">
-        <v>203261783</v>
+        <v>203272943</v>
       </c>
       <c r="SQ21" t="n">
-        <v>223386256</v>
+        <v>223590510</v>
       </c>
       <c r="SR21" t="n">
-        <v>221408015</v>
+        <v>221473211</v>
       </c>
       <c r="SS21" t="n">
-        <v>192482966</v>
+        <v>192477488</v>
       </c>
       <c r="ST21" t="n">
-        <v>211428687</v>
+        <v>211416342</v>
       </c>
       <c r="SU21" t="n">
-        <v>230413451</v>
+        <v>230430619</v>
       </c>
       <c r="SV21" t="n">
-        <v>195003926</v>
+        <v>195029809</v>
       </c>
       <c r="SW21" t="n">
-        <v>237001068</v>
+        <v>237001635</v>
       </c>
       <c r="SX21" t="n">
-        <v>236091562</v>
+        <v>236137759</v>
+      </c>
+      <c r="SY21" t="n">
+        <v>245090219</v>
+      </c>
+      <c r="SZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -35713,6 +36493,42 @@
       <c r="SX22" t="n">
         <v>5718400</v>
       </c>
+      <c r="SY22" t="n">
+        <v>4354756</v>
+      </c>
+      <c r="SZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -37238,7 +38054,7 @@
         <v>4704107</v>
       </c>
       <c r="SM23" t="n">
-        <v>3582572</v>
+        <v>3582602</v>
       </c>
       <c r="SN23" t="n">
         <v>2623230</v>
@@ -37271,7 +38087,43 @@
         <v>2689811</v>
       </c>
       <c r="SX23" t="n">
-        <v>3326429</v>
+        <v>3332445</v>
+      </c>
+      <c r="SY23" t="n">
+        <v>5277694</v>
+      </c>
+      <c r="SZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -38801,7 +39653,7 @@
         <v>17796357</v>
       </c>
       <c r="SN24" t="n">
-        <v>17281606</v>
+        <v>17248532</v>
       </c>
       <c r="SO24" t="n">
         <v>28732893</v>
@@ -38832,6 +39684,42 @@
       </c>
       <c r="SX24" t="n">
         <v>23445682</v>
+      </c>
+      <c r="SY24" t="n">
+        <v>21784375</v>
+      </c>
+      <c r="SZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -40358,40 +41246,76 @@
         <v>28298603</v>
       </c>
       <c r="SM25" t="n">
-        <v>29454721</v>
+        <v>29471466</v>
       </c>
       <c r="SN25" t="n">
-        <v>29839783</v>
+        <v>29998865</v>
       </c>
       <c r="SO25" t="n">
-        <v>35694262</v>
+        <v>35799632</v>
       </c>
       <c r="SP25" t="n">
-        <v>45747216</v>
+        <v>45813496</v>
       </c>
       <c r="SQ25" t="n">
-        <v>42045625</v>
+        <v>42133148</v>
       </c>
       <c r="SR25" t="n">
-        <v>58073548</v>
+        <v>58139168</v>
       </c>
       <c r="SS25" t="n">
-        <v>64595726</v>
+        <v>64598404</v>
       </c>
       <c r="ST25" t="n">
-        <v>78618840</v>
+        <v>78639861</v>
       </c>
       <c r="SU25" t="n">
-        <v>71595930</v>
+        <v>71598840</v>
       </c>
       <c r="SV25" t="n">
-        <v>42480861</v>
+        <v>42484964</v>
       </c>
       <c r="SW25" t="n">
         <v>49157442</v>
       </c>
       <c r="SX25" t="n">
-        <v>43151568</v>
+        <v>43154626</v>
+      </c>
+      <c r="SY25" t="n">
+        <v>77992372</v>
+      </c>
+      <c r="SZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -41951,7 +42875,43 @@
         <v>42956876</v>
       </c>
       <c r="SX26" t="n">
-        <v>49846219</v>
+        <v>49848110</v>
+      </c>
+      <c r="SY26" t="n">
+        <v>44128769</v>
+      </c>
+      <c r="SZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -43478,40 +44438,76 @@
         <v>99282645</v>
       </c>
       <c r="SM27" t="n">
-        <v>88574807</v>
+        <v>87937713</v>
       </c>
       <c r="SN27" t="n">
-        <v>86469417</v>
+        <v>86192894</v>
       </c>
       <c r="SO27" t="n">
-        <v>110097923</v>
+        <v>110128331</v>
       </c>
       <c r="SP27" t="n">
-        <v>97807846</v>
+        <v>97505905</v>
       </c>
       <c r="SQ27" t="n">
-        <v>104082569</v>
+        <v>103808559</v>
       </c>
       <c r="SR27" t="n">
-        <v>117409918</v>
+        <v>117435139</v>
       </c>
       <c r="SS27" t="n">
-        <v>102345417</v>
+        <v>102046153</v>
       </c>
       <c r="ST27" t="n">
-        <v>110834036</v>
+        <v>110837072</v>
       </c>
       <c r="SU27" t="n">
-        <v>117072058</v>
+        <v>116776006</v>
       </c>
       <c r="SV27" t="n">
-        <v>88646892</v>
+        <v>88663646</v>
       </c>
       <c r="SW27" t="n">
-        <v>125380738</v>
+        <v>125380980</v>
       </c>
       <c r="SX27" t="n">
-        <v>124624182</v>
+        <v>124632508</v>
+      </c>
+      <c r="SY27" t="n">
+        <v>116969567</v>
+      </c>
+      <c r="SZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -45065,13 +46061,49 @@
         <v>1009698</v>
       </c>
       <c r="SV28" t="n">
-        <v>868608</v>
+        <v>868018</v>
       </c>
       <c r="SW28" t="n">
         <v>990431</v>
       </c>
       <c r="SX28" t="n">
         <v>922608</v>
+      </c>
+      <c r="SY28" t="n">
+        <v>539424</v>
+      </c>
+      <c r="SZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -46631,7 +47663,43 @@
         <v>415263</v>
       </c>
       <c r="SX29" t="n">
-        <v>5027289</v>
+        <v>5036661</v>
+      </c>
+      <c r="SY29" t="n">
+        <v>1944734</v>
+      </c>
+      <c r="SZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -48185,13 +49253,49 @@
         <v>3328396</v>
       </c>
       <c r="SV30" t="n">
-        <v>4024226</v>
+        <v>4022930</v>
       </c>
       <c r="SW30" t="n">
         <v>4709438</v>
       </c>
       <c r="SX30" t="n">
         <v>5136293</v>
+      </c>
+      <c r="SY30" t="n">
+        <v>3679968</v>
+      </c>
+      <c r="SZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -49718,40 +50822,76 @@
         <v>12398347</v>
       </c>
       <c r="SM31" t="n">
-        <v>13017853</v>
+        <v>13069683</v>
       </c>
       <c r="SN31" t="n">
-        <v>14211739</v>
+        <v>14458241</v>
       </c>
       <c r="SO31" t="n">
-        <v>15779464</v>
+        <v>15844770</v>
       </c>
       <c r="SP31" t="n">
-        <v>19521733</v>
+        <v>20106115</v>
       </c>
       <c r="SQ31" t="n">
-        <v>15751152</v>
+        <v>15789631</v>
       </c>
       <c r="SR31" t="n">
-        <v>20317406</v>
+        <v>20599158</v>
       </c>
       <c r="SS31" t="n">
-        <v>17564401</v>
+        <v>17787212</v>
       </c>
       <c r="ST31" t="n">
         <v>16725679</v>
       </c>
       <c r="SU31" t="n">
-        <v>18145040</v>
+        <v>18174813</v>
       </c>
       <c r="SV31" t="n">
-        <v>19590036</v>
+        <v>19589416</v>
       </c>
       <c r="SW31" t="n">
-        <v>19861664</v>
+        <v>19878854</v>
       </c>
       <c r="SX31" t="n">
-        <v>23969586</v>
+        <v>23969769</v>
+      </c>
+      <c r="SY31" t="n">
+        <v>26363726</v>
+      </c>
+      <c r="SZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -51278,7 +52418,7 @@
         <v>32305638</v>
       </c>
       <c r="SM32" t="n">
-        <v>25153474</v>
+        <v>25146619</v>
       </c>
       <c r="SN32" t="n">
         <v>27768114</v>
@@ -51312,6 +52452,42 @@
       </c>
       <c r="SX32" t="n">
         <v>30400871</v>
+      </c>
+      <c r="SY32" t="n">
+        <v>28355295</v>
+      </c>
+      <c r="SZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -52838,40 +54014,76 @@
         <v>9214204</v>
       </c>
       <c r="SM33" t="n">
-        <v>7973360</v>
+        <v>7948385</v>
       </c>
       <c r="SN33" t="n">
-        <v>8415108</v>
+        <v>8383974</v>
       </c>
       <c r="SO33" t="n">
-        <v>9972427</v>
+        <v>9945573</v>
       </c>
       <c r="SP33" t="n">
-        <v>11347990</v>
+        <v>11346030</v>
       </c>
       <c r="SQ33" t="n">
-        <v>10079727</v>
+        <v>10074197</v>
       </c>
       <c r="SR33" t="n">
-        <v>13367950</v>
+        <v>13380885</v>
       </c>
       <c r="SS33" t="n">
-        <v>9905363</v>
+        <v>9893487</v>
       </c>
       <c r="ST33" t="n">
-        <v>10216831</v>
+        <v>10210835</v>
       </c>
       <c r="SU33" t="n">
-        <v>10538524</v>
+        <v>10544987</v>
       </c>
       <c r="SV33" t="n">
-        <v>10285566</v>
+        <v>10251921</v>
       </c>
       <c r="SW33" t="n">
-        <v>14076085</v>
+        <v>14073321</v>
       </c>
       <c r="SX33" t="n">
-        <v>12257281</v>
+        <v>12260502</v>
+      </c>
+      <c r="SY33" t="n">
+        <v>14036683</v>
+      </c>
+      <c r="SZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI33" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -54433,6 +55645,42 @@
       <c r="SX34" t="n">
         <v>13661999</v>
       </c>
+      <c r="SY34" t="n">
+        <v>11876650</v>
+      </c>
+      <c r="SZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -55958,40 +57206,76 @@
         <v>19036465</v>
       </c>
       <c r="SM35" t="n">
-        <v>18961611</v>
+        <v>18963355</v>
       </c>
       <c r="SN35" t="n">
-        <v>17404045</v>
+        <v>17404845</v>
       </c>
       <c r="SO35" t="n">
-        <v>19504427</v>
+        <v>19511973</v>
       </c>
       <c r="SP35" t="n">
-        <v>19677691</v>
+        <v>19678941</v>
       </c>
       <c r="SQ35" t="n">
-        <v>21897599</v>
+        <v>21909132</v>
       </c>
       <c r="SR35" t="n">
-        <v>22337817</v>
+        <v>22339093</v>
       </c>
       <c r="SS35" t="n">
-        <v>17280559</v>
+        <v>17281209</v>
       </c>
       <c r="ST35" t="n">
-        <v>21586002</v>
+        <v>21588978</v>
       </c>
       <c r="SU35" t="n">
-        <v>19846124</v>
+        <v>19848756</v>
       </c>
       <c r="SV35" t="n">
-        <v>17026532</v>
+        <v>17027152</v>
       </c>
       <c r="SW35" t="n">
         <v>29460093</v>
       </c>
       <c r="SX35" t="n">
-        <v>22508884</v>
+        <v>22510154</v>
+      </c>
+      <c r="SY35" t="n">
+        <v>20842581</v>
+      </c>
+      <c r="SZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -57553,6 +58837,42 @@
       <c r="SX36" t="n">
         <v>15215200</v>
       </c>
+      <c r="SY36" t="n">
+        <v>11799701</v>
+      </c>
+      <c r="SZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI36" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -59078,10 +60398,10 @@
         <v>9295397</v>
       </c>
       <c r="SM37" t="n">
-        <v>8690287</v>
+        <v>8692120</v>
       </c>
       <c r="SN37" t="n">
-        <v>9461956</v>
+        <v>9471194</v>
       </c>
       <c r="SO37" t="n">
         <v>9599193</v>
@@ -59093,7 +60413,7 @@
         <v>14584077</v>
       </c>
       <c r="SR37" t="n">
-        <v>12862344</v>
+        <v>12924481</v>
       </c>
       <c r="SS37" t="n">
         <v>10777636</v>
@@ -59102,7 +60422,7 @@
         <v>9942573</v>
       </c>
       <c r="SU37" t="n">
-        <v>11236433</v>
+        <v>11236503</v>
       </c>
       <c r="SV37" t="n">
         <v>8662661</v>
@@ -59111,7 +60431,43 @@
         <v>10840999</v>
       </c>
       <c r="SX37" t="n">
-        <v>11873715</v>
+        <v>11988528</v>
+      </c>
+      <c r="SY37" t="n">
+        <v>9127090</v>
+      </c>
+      <c r="SZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI37" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -60673,6 +62029,42 @@
       <c r="SX38" t="n">
         <v>1946863</v>
       </c>
+      <c r="SY38" t="n">
+        <v>1830119</v>
+      </c>
+      <c r="SZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -62198,7 +63590,7 @@
         <v>7210993</v>
       </c>
       <c r="SM39" t="n">
-        <v>5889277</v>
+        <v>5894858</v>
       </c>
       <c r="SN39" t="n">
         <v>4386876</v>
@@ -62232,6 +63624,42 @@
       </c>
       <c r="SX39" t="n">
         <v>8758671</v>
+      </c>
+      <c r="SY39" t="n">
+        <v>11171621</v>
+      </c>
+      <c r="SZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI39" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -63793,6 +65221,42 @@
       <c r="SX40" t="n">
         <v>4547480</v>
       </c>
+      <c r="SY40" t="n">
+        <v>3173808</v>
+      </c>
+      <c r="SZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -65318,25 +66782,25 @@
         <v>7758985</v>
       </c>
       <c r="SM41" t="n">
-        <v>11916854</v>
+        <v>11912667</v>
       </c>
       <c r="SN41" t="n">
-        <v>7436381</v>
+        <v>7431174</v>
       </c>
       <c r="SO41" t="n">
-        <v>7037374</v>
+        <v>7026382</v>
       </c>
       <c r="SP41" t="n">
-        <v>9211181</v>
+        <v>9205916</v>
       </c>
       <c r="SQ41" t="n">
-        <v>6771838</v>
+        <v>6764872</v>
       </c>
       <c r="SR41" t="n">
-        <v>9908999</v>
+        <v>9904950</v>
       </c>
       <c r="SS41" t="n">
-        <v>9329485</v>
+        <v>9329332</v>
       </c>
       <c r="ST41" t="n">
         <v>7937885</v>
@@ -65351,7 +66815,43 @@
         <v>10946245</v>
       </c>
       <c r="SX41" t="n">
-        <v>8079348</v>
+        <v>8432901</v>
+      </c>
+      <c r="SY41" t="n">
+        <v>7076156</v>
+      </c>
+      <c r="SZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -66913,6 +68413,42 @@
       <c r="SX42" t="n">
         <v>1924797</v>
       </c>
+      <c r="SY42" t="n">
+        <v>1427424</v>
+      </c>
+      <c r="SZ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI42" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -68441,7 +69977,7 @@
         <v>1100000</v>
       </c>
       <c r="SN43" t="n">
-        <v>1311715</v>
+        <v>1312658</v>
       </c>
       <c r="SO43" t="n">
         <v>1127960</v>
@@ -68471,7 +70007,43 @@
         <v>1213971</v>
       </c>
       <c r="SX43" t="n">
-        <v>1106135</v>
+        <v>1106345</v>
+      </c>
+      <c r="SY43" t="n">
+        <v>1042291</v>
+      </c>
+      <c r="SZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -70004,10 +71576,10 @@
         <v>1000338</v>
       </c>
       <c r="SO44" t="n">
-        <v>950438</v>
+        <v>949703</v>
       </c>
       <c r="SP44" t="n">
-        <v>824337</v>
+        <v>818957</v>
       </c>
       <c r="SQ44" t="n">
         <v>1349304</v>
@@ -70032,6 +71604,42 @@
       </c>
       <c r="SX44" t="n">
         <v>2241153</v>
+      </c>
+      <c r="SY44" t="n">
+        <v>480530</v>
+      </c>
+      <c r="SZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI44" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -71593,6 +73201,42 @@
       <c r="SX45" t="n">
         <v>3897</v>
       </c>
+      <c r="SY45" t="n">
+        <v>1466</v>
+      </c>
+      <c r="SZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI45" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -73153,6 +74797,42 @@
       <c r="SX46" t="n">
         <v>2222772</v>
       </c>
+      <c r="SY46" t="n">
+        <v>1867772</v>
+      </c>
+      <c r="SZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI46" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -74681,13 +76361,13 @@
         <v>1099399</v>
       </c>
       <c r="SN47" t="n">
-        <v>1859228</v>
+        <v>1853893</v>
       </c>
       <c r="SO47" t="n">
-        <v>5170635</v>
+        <v>5166300</v>
       </c>
       <c r="SP47" t="n">
-        <v>1151221</v>
+        <v>1147667</v>
       </c>
       <c r="SQ47" t="n">
         <v>1663627</v>
@@ -74712,6 +76392,42 @@
       </c>
       <c r="SX47" t="n">
         <v>1258868</v>
+      </c>
+      <c r="SY47" t="n">
+        <v>3126069</v>
+      </c>
+      <c r="SZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI47" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -76273,6 +77989,42 @@
       <c r="SX48" t="n">
         <v>516114</v>
       </c>
+      <c r="SY48" t="n">
+        <v>393149</v>
+      </c>
+      <c r="SZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI48" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -77833,6 +79585,42 @@
       <c r="SX49" t="n">
         <v>1153664</v>
       </c>
+      <c r="SY49" t="n">
+        <v>1646674</v>
+      </c>
+      <c r="SZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI49" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -79393,6 +81181,42 @@
       <c r="SX50" t="n">
         <v>927609</v>
       </c>
+      <c r="SY50" t="n">
+        <v>884422</v>
+      </c>
+      <c r="SZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI50" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -80918,28 +82742,28 @@
         <v>1053189</v>
       </c>
       <c r="SM51" t="n">
-        <v>1011860</v>
+        <v>1009554</v>
       </c>
       <c r="SN51" t="n">
-        <v>1330111</v>
+        <v>1340719</v>
       </c>
       <c r="SO51" t="n">
-        <v>1425595</v>
+        <v>1425768</v>
       </c>
       <c r="SP51" t="n">
-        <v>1083919</v>
+        <v>1101606</v>
       </c>
       <c r="SQ51" t="n">
-        <v>1093188</v>
+        <v>1088025</v>
       </c>
       <c r="SR51" t="n">
-        <v>1215784</v>
+        <v>1211546</v>
       </c>
       <c r="SS51" t="n">
-        <v>1161816</v>
+        <v>1156573</v>
       </c>
       <c r="ST51" t="n">
-        <v>1297748</v>
+        <v>1287945</v>
       </c>
       <c r="SU51" t="n">
         <v>1009500</v>
@@ -80948,10 +82772,46 @@
         <v>1353540</v>
       </c>
       <c r="SW51" t="n">
-        <v>1274048</v>
+        <v>1252056</v>
       </c>
       <c r="SX51" t="n">
         <v>1196326</v>
+      </c>
+      <c r="SY51" t="n">
+        <v>1548009</v>
+      </c>
+      <c r="SZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI51" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -82513,6 +84373,42 @@
       <c r="SX52" t="n">
         <v>756783</v>
       </c>
+      <c r="SY52" t="n">
+        <v>440990</v>
+      </c>
+      <c r="SZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI52" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -84073,6 +85969,42 @@
       <c r="SX53" t="n">
         <v>233033</v>
       </c>
+      <c r="SY53" t="n">
+        <v>298305</v>
+      </c>
+      <c r="SZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI53" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -85633,6 +87565,42 @@
       <c r="SX54" t="n">
         <v>2061824</v>
       </c>
+      <c r="SY54" t="n">
+        <v>1529495</v>
+      </c>
+      <c r="SZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI54" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -87193,6 +89161,42 @@
       <c r="SX55" t="n">
         <v>1062942</v>
       </c>
+      <c r="SY55" t="n">
+        <v>1566729</v>
+      </c>
+      <c r="SZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI55" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -88718,13 +90722,13 @@
         <v>19281550</v>
       </c>
       <c r="SM56" t="n">
-        <v>16885417</v>
+        <v>16876079</v>
       </c>
       <c r="SN56" t="n">
         <v>16577045</v>
       </c>
       <c r="SO56" t="n">
-        <v>18807879</v>
+        <v>18808829</v>
       </c>
       <c r="SP56" t="n">
         <v>18986226</v>
@@ -88752,6 +90756,42 @@
       </c>
       <c r="SX56" t="n">
         <v>18517425</v>
+      </c>
+      <c r="SY56" t="n">
+        <v>19731388</v>
+      </c>
+      <c r="SZ56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI56" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -90278,40 +92318,76 @@
         <v>9208262</v>
       </c>
       <c r="SM57" t="n">
-        <v>10718166</v>
+        <v>11134079</v>
       </c>
       <c r="SN57" t="n">
-        <v>12690070</v>
+        <v>12954016</v>
       </c>
       <c r="SO57" t="n">
-        <v>13746801</v>
+        <v>13747069</v>
       </c>
       <c r="SP57" t="n">
-        <v>17089589</v>
+        <v>17097654</v>
       </c>
       <c r="SQ57" t="n">
-        <v>11683948</v>
+        <v>11630149</v>
       </c>
       <c r="SR57" t="n">
-        <v>17312342</v>
+        <v>17277017</v>
       </c>
       <c r="SS57" t="n">
-        <v>15651290</v>
+        <v>15593544</v>
       </c>
       <c r="ST57" t="n">
-        <v>19861481</v>
+        <v>19826787</v>
       </c>
       <c r="SU57" t="n">
-        <v>14980277</v>
+        <v>14980268</v>
       </c>
       <c r="SV57" t="n">
-        <v>16835339</v>
+        <v>16835058</v>
       </c>
       <c r="SW57" t="n">
-        <v>15146267</v>
+        <v>15145855</v>
       </c>
       <c r="SX57" t="n">
-        <v>14765407</v>
+        <v>14767542</v>
+      </c>
+      <c r="SY57" t="n">
+        <v>16818642</v>
+      </c>
+      <c r="SZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI57" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -91873,6 +93949,42 @@
       <c r="SX58" t="n">
         <v>1516226</v>
       </c>
+      <c r="SY58" t="n">
+        <v>1524379</v>
+      </c>
+      <c r="SZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI58" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -93398,25 +95510,25 @@
         <v>5193298</v>
       </c>
       <c r="SM59" t="n">
-        <v>3127091</v>
+        <v>3040083</v>
       </c>
       <c r="SN59" t="n">
-        <v>2352241</v>
+        <v>2350849</v>
       </c>
       <c r="SO59" t="n">
-        <v>3172824</v>
+        <v>3178272</v>
       </c>
       <c r="SP59" t="n">
-        <v>2760252</v>
+        <v>2758598</v>
       </c>
       <c r="SQ59" t="n">
-        <v>6878239</v>
+        <v>6870801</v>
       </c>
       <c r="SR59" t="n">
-        <v>4139441</v>
+        <v>4135945</v>
       </c>
       <c r="SS59" t="n">
-        <v>2546976</v>
+        <v>2542123</v>
       </c>
       <c r="ST59" t="n">
         <v>2024398</v>
@@ -93431,7 +95543,43 @@
         <v>3220704</v>
       </c>
       <c r="SX59" t="n">
-        <v>4491068</v>
+        <v>4491204</v>
+      </c>
+      <c r="SY59" t="n">
+        <v>4590607</v>
+      </c>
+      <c r="SZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI59" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ59" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/158/MOF/TRADE/COUN/EU.xlsx
+++ b/data/158/MOF/TRADE/COUN/EU.xlsx
@@ -4577,7 +4577,7 @@
         <v>617881792</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0</v>
+        <v>640971436</v>
       </c>
       <c r="TA2" t="n">
         <v>0</v>
@@ -6170,10 +6170,10 @@
         <v>817560096</v>
       </c>
       <c r="SY3" t="n">
-        <v>870800044</v>
+        <v>870830200</v>
       </c>
       <c r="SZ3" t="n">
-        <v>0</v>
+        <v>835424024</v>
       </c>
       <c r="TA3" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>9388336</v>
       </c>
       <c r="SZ4" t="n">
-        <v>0</v>
+        <v>9583382</v>
       </c>
       <c r="TA4" t="n">
         <v>0</v>
@@ -9365,7 +9365,7 @@
         <v>43228140</v>
       </c>
       <c r="SZ5" t="n">
-        <v>0</v>
+        <v>29297030</v>
       </c>
       <c r="TA5" t="n">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>4793898</v>
       </c>
       <c r="SZ6" t="n">
-        <v>0</v>
+        <v>4472840</v>
       </c>
       <c r="TA6" t="n">
         <v>0</v>
@@ -12554,10 +12554,10 @@
         <v>20505736</v>
       </c>
       <c r="SY7" t="n">
-        <v>28159864</v>
+        <v>28159915</v>
       </c>
       <c r="SZ7" t="n">
-        <v>0</v>
+        <v>24801261</v>
       </c>
       <c r="TA7" t="n">
         <v>0</v>
@@ -17345,7 +17345,7 @@
         <v>17870579</v>
       </c>
       <c r="SZ10" t="n">
-        <v>0</v>
+        <v>18076977</v>
       </c>
       <c r="TA10" t="n">
         <v>0</v>
@@ -18941,7 +18941,7 @@
         <v>45027760</v>
       </c>
       <c r="SZ11" t="n">
-        <v>0</v>
+        <v>45638958</v>
       </c>
       <c r="TA11" t="n">
         <v>0</v>
@@ -20537,7 +20537,7 @@
         <v>111444387</v>
       </c>
       <c r="SZ12" t="n">
-        <v>0</v>
+        <v>109239286</v>
       </c>
       <c r="TA12" t="n">
         <v>0</v>
@@ -22130,10 +22130,10 @@
         <v>28519221</v>
       </c>
       <c r="SY13" t="n">
-        <v>42468213</v>
+        <v>42472957</v>
       </c>
       <c r="SZ13" t="n">
-        <v>0</v>
+        <v>41422977</v>
       </c>
       <c r="TA13" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         <v>69899611</v>
       </c>
       <c r="SZ14" t="n">
-        <v>0</v>
+        <v>71361268</v>
       </c>
       <c r="TA14" t="n">
         <v>0</v>
@@ -25322,10 +25322,10 @@
         <v>22161280</v>
       </c>
       <c r="SY15" t="n">
-        <v>45797749</v>
+        <v>45798103</v>
       </c>
       <c r="SZ15" t="n">
-        <v>0</v>
+        <v>87656949</v>
       </c>
       <c r="TA15" t="n">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>7166670</v>
       </c>
       <c r="SZ16" t="n">
-        <v>0</v>
+        <v>7129105</v>
       </c>
       <c r="TA16" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>718289</v>
       </c>
       <c r="SZ17" t="n">
-        <v>0</v>
+        <v>864995</v>
       </c>
       <c r="TA17" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>64245996</v>
       </c>
       <c r="SZ18" t="n">
-        <v>0</v>
+        <v>55833698</v>
       </c>
       <c r="TA18" t="n">
         <v>0</v>
@@ -31706,10 +31706,10 @@
         <v>120626297</v>
       </c>
       <c r="SY19" t="n">
-        <v>98868794</v>
+        <v>98869797</v>
       </c>
       <c r="SZ19" t="n">
-        <v>0</v>
+        <v>97390304</v>
       </c>
       <c r="TA19" t="n">
         <v>0</v>
@@ -33305,7 +33305,7 @@
         <v>173269901</v>
       </c>
       <c r="SZ20" t="n">
-        <v>0</v>
+        <v>182463060</v>
       </c>
       <c r="TA20" t="n">
         <v>0</v>
@@ -34898,10 +34898,10 @@
         <v>236137759</v>
       </c>
       <c r="SY21" t="n">
-        <v>245090219</v>
+        <v>245135195</v>
       </c>
       <c r="SZ21" t="n">
-        <v>0</v>
+        <v>192110331</v>
       </c>
       <c r="TA21" t="n">
         <v>0</v>
@@ -36497,7 +36497,7 @@
         <v>4354756</v>
       </c>
       <c r="SZ22" t="n">
-        <v>0</v>
+        <v>5999080</v>
       </c>
       <c r="TA22" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>3332445</v>
       </c>
       <c r="SY23" t="n">
-        <v>5277694</v>
+        <v>5278153</v>
       </c>
       <c r="SZ23" t="n">
-        <v>0</v>
+        <v>4844335</v>
       </c>
       <c r="TA23" t="n">
         <v>0</v>
@@ -39689,7 +39689,7 @@
         <v>21784375</v>
       </c>
       <c r="SZ24" t="n">
-        <v>0</v>
+        <v>21576330</v>
       </c>
       <c r="TA24" t="n">
         <v>0</v>
@@ -41282,10 +41282,10 @@
         <v>43154626</v>
       </c>
       <c r="SY25" t="n">
-        <v>77992372</v>
+        <v>77992401</v>
       </c>
       <c r="SZ25" t="n">
-        <v>0</v>
+        <v>84958372</v>
       </c>
       <c r="TA25" t="n">
         <v>0</v>
@@ -42881,7 +42881,7 @@
         <v>44128769</v>
       </c>
       <c r="SZ26" t="n">
-        <v>0</v>
+        <v>54474919</v>
       </c>
       <c r="TA26" t="n">
         <v>0</v>
@@ -44474,10 +44474,10 @@
         <v>124632508</v>
       </c>
       <c r="SY27" t="n">
-        <v>116969567</v>
+        <v>116965292</v>
       </c>
       <c r="SZ27" t="n">
-        <v>0</v>
+        <v>115790348</v>
       </c>
       <c r="TA27" t="n">
         <v>0</v>
@@ -46073,7 +46073,7 @@
         <v>539424</v>
       </c>
       <c r="SZ28" t="n">
-        <v>0</v>
+        <v>735930</v>
       </c>
       <c r="TA28" t="n">
         <v>0</v>
@@ -47669,7 +47669,7 @@
         <v>1944734</v>
       </c>
       <c r="SZ29" t="n">
-        <v>0</v>
+        <v>3029958</v>
       </c>
       <c r="TA29" t="n">
         <v>0</v>
@@ -49265,7 +49265,7 @@
         <v>3679968</v>
       </c>
       <c r="SZ30" t="n">
-        <v>0</v>
+        <v>4566731</v>
       </c>
       <c r="TA30" t="n">
         <v>0</v>
@@ -50861,7 +50861,7 @@
         <v>26363726</v>
       </c>
       <c r="SZ31" t="n">
-        <v>0</v>
+        <v>24222186</v>
       </c>
       <c r="TA31" t="n">
         <v>0</v>
@@ -52457,7 +52457,7 @@
         <v>28355295</v>
       </c>
       <c r="SZ32" t="n">
-        <v>0</v>
+        <v>31393342</v>
       </c>
       <c r="TA32" t="n">
         <v>0</v>
@@ -54050,10 +54050,10 @@
         <v>12260502</v>
       </c>
       <c r="SY33" t="n">
-        <v>14036683</v>
+        <v>14043850</v>
       </c>
       <c r="SZ33" t="n">
-        <v>0</v>
+        <v>11777474</v>
       </c>
       <c r="TA33" t="n">
         <v>0</v>
@@ -55649,7 +55649,7 @@
         <v>11876650</v>
       </c>
       <c r="SZ34" t="n">
-        <v>0</v>
+        <v>11564318</v>
       </c>
       <c r="TA34" t="n">
         <v>0</v>
@@ -57242,10 +57242,10 @@
         <v>22510154</v>
       </c>
       <c r="SY35" t="n">
-        <v>20842581</v>
+        <v>20842694</v>
       </c>
       <c r="SZ35" t="n">
-        <v>0</v>
+        <v>21853794</v>
       </c>
       <c r="TA35" t="n">
         <v>0</v>
@@ -58841,7 +58841,7 @@
         <v>11799701</v>
       </c>
       <c r="SZ36" t="n">
-        <v>0</v>
+        <v>15473163</v>
       </c>
       <c r="TA36" t="n">
         <v>0</v>
@@ -60434,10 +60434,10 @@
         <v>11988528</v>
       </c>
       <c r="SY37" t="n">
-        <v>9127090</v>
+        <v>9133455</v>
       </c>
       <c r="SZ37" t="n">
-        <v>0</v>
+        <v>8602568</v>
       </c>
       <c r="TA37" t="n">
         <v>0</v>
@@ -62033,7 +62033,7 @@
         <v>1830119</v>
       </c>
       <c r="SZ38" t="n">
-        <v>0</v>
+        <v>2634294</v>
       </c>
       <c r="TA38" t="n">
         <v>0</v>
@@ -63626,10 +63626,10 @@
         <v>8758671</v>
       </c>
       <c r="SY39" t="n">
-        <v>11171621</v>
+        <v>11171636</v>
       </c>
       <c r="SZ39" t="n">
-        <v>0</v>
+        <v>4555662</v>
       </c>
       <c r="TA39" t="n">
         <v>0</v>
@@ -65225,7 +65225,7 @@
         <v>3173808</v>
       </c>
       <c r="SZ40" t="n">
-        <v>0</v>
+        <v>4313362</v>
       </c>
       <c r="TA40" t="n">
         <v>0</v>
@@ -66818,10 +66818,10 @@
         <v>8432901</v>
       </c>
       <c r="SY41" t="n">
-        <v>7076156</v>
+        <v>7082543</v>
       </c>
       <c r="SZ41" t="n">
-        <v>0</v>
+        <v>12554705</v>
       </c>
       <c r="TA41" t="n">
         <v>0</v>
@@ -68417,7 +68417,7 @@
         <v>1427424</v>
       </c>
       <c r="SZ42" t="n">
-        <v>0</v>
+        <v>2358907</v>
       </c>
       <c r="TA42" t="n">
         <v>0</v>
@@ -70010,10 +70010,10 @@
         <v>1106345</v>
       </c>
       <c r="SY43" t="n">
-        <v>1042291</v>
+        <v>1042441</v>
       </c>
       <c r="SZ43" t="n">
-        <v>0</v>
+        <v>1511790</v>
       </c>
       <c r="TA43" t="n">
         <v>0</v>
@@ -71609,7 +71609,7 @@
         <v>480530</v>
       </c>
       <c r="SZ44" t="n">
-        <v>0</v>
+        <v>1141526</v>
       </c>
       <c r="TA44" t="n">
         <v>0</v>
@@ -73205,7 +73205,7 @@
         <v>1466</v>
       </c>
       <c r="SZ45" t="n">
-        <v>0</v>
+        <v>3186</v>
       </c>
       <c r="TA45" t="n">
         <v>0</v>
@@ -74801,7 +74801,7 @@
         <v>1867772</v>
       </c>
       <c r="SZ46" t="n">
-        <v>0</v>
+        <v>2173954</v>
       </c>
       <c r="TA46" t="n">
         <v>0</v>
@@ -76397,7 +76397,7 @@
         <v>3126069</v>
       </c>
       <c r="SZ47" t="n">
-        <v>0</v>
+        <v>2167904</v>
       </c>
       <c r="TA47" t="n">
         <v>0</v>
@@ -77993,7 +77993,7 @@
         <v>393149</v>
       </c>
       <c r="SZ48" t="n">
-        <v>0</v>
+        <v>454745</v>
       </c>
       <c r="TA48" t="n">
         <v>0</v>
@@ -79589,7 +79589,7 @@
         <v>1646674</v>
       </c>
       <c r="SZ49" t="n">
-        <v>0</v>
+        <v>1357646</v>
       </c>
       <c r="TA49" t="n">
         <v>0</v>
@@ -81185,7 +81185,7 @@
         <v>884422</v>
       </c>
       <c r="SZ50" t="n">
-        <v>0</v>
+        <v>1139709</v>
       </c>
       <c r="TA50" t="n">
         <v>0</v>
@@ -82778,10 +82778,10 @@
         <v>1196326</v>
       </c>
       <c r="SY51" t="n">
-        <v>1548009</v>
+        <v>1522114</v>
       </c>
       <c r="SZ51" t="n">
-        <v>0</v>
+        <v>1167404</v>
       </c>
       <c r="TA51" t="n">
         <v>0</v>
@@ -84377,7 +84377,7 @@
         <v>440990</v>
       </c>
       <c r="SZ52" t="n">
-        <v>0</v>
+        <v>617949</v>
       </c>
       <c r="TA52" t="n">
         <v>0</v>
@@ -85973,7 +85973,7 @@
         <v>298305</v>
       </c>
       <c r="SZ53" t="n">
-        <v>0</v>
+        <v>240807</v>
       </c>
       <c r="TA53" t="n">
         <v>0</v>
@@ -87569,7 +87569,7 @@
         <v>1529495</v>
       </c>
       <c r="SZ54" t="n">
-        <v>0</v>
+        <v>2029876</v>
       </c>
       <c r="TA54" t="n">
         <v>0</v>
@@ -89165,7 +89165,7 @@
         <v>1566729</v>
       </c>
       <c r="SZ55" t="n">
-        <v>0</v>
+        <v>2820977</v>
       </c>
       <c r="TA55" t="n">
         <v>0</v>
@@ -90761,7 +90761,7 @@
         <v>19731388</v>
       </c>
       <c r="SZ56" t="n">
-        <v>0</v>
+        <v>18962005</v>
       </c>
       <c r="TA56" t="n">
         <v>0</v>
@@ -92354,10 +92354,10 @@
         <v>14767542</v>
       </c>
       <c r="SY57" t="n">
-        <v>16818642</v>
+        <v>16807141</v>
       </c>
       <c r="SZ57" t="n">
-        <v>0</v>
+        <v>11700274</v>
       </c>
       <c r="TA57" t="n">
         <v>0</v>
@@ -93953,7 +93953,7 @@
         <v>1524379</v>
       </c>
       <c r="SZ58" t="n">
-        <v>0</v>
+        <v>1201680</v>
       </c>
       <c r="TA58" t="n">
         <v>0</v>
@@ -95546,10 +95546,10 @@
         <v>4491204</v>
       </c>
       <c r="SY59" t="n">
-        <v>4590607</v>
+        <v>4590621</v>
       </c>
       <c r="SZ59" t="n">
-        <v>0</v>
+        <v>3081829</v>
       </c>
       <c r="TA59" t="n">
         <v>0</v>
